--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-218 Hot Food_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-218 Hot Food_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9793BC-2B8B-4410-8ED6-7468DF7D6A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A159A3-0C06-4178-902C-A88E6D651637}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="170">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,22 +295,127 @@
     <t>n</t>
   </si>
   <si>
-    <t>OSCAR MAYER HOTDOG 5/1 10LB</t>
+    <t>RAYBERN HAM/EGG/CHZ PRTZL ROLL</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>218 04 000 Acquisition Hot Fd</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Use Category Setting</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>Food Service and Technology</t>
+  </si>
+  <si>
+    <t>aDeli Case</t>
+  </si>
+  <si>
+    <t>1125309-1</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>_766626183748</t>
+  </si>
+  <si>
+    <t>Transfer Group</t>
+  </si>
+  <si>
+    <t>J&amp;J STUFFED PRETZEL</t>
+  </si>
+  <si>
+    <t>Prepared Foods</t>
+  </si>
+  <si>
+    <t>1125338-1</t>
+  </si>
+  <si>
+    <t>_073321725266</t>
+  </si>
+  <si>
+    <t>DAY AND NIGHT OMELET WRAP 4Z</t>
+  </si>
+  <si>
+    <t>1125358-1</t>
+  </si>
+  <si>
+    <t>_685060084629</t>
+  </si>
+  <si>
+    <t>TORNADO MEAT LOVERS  SCRAMBLE 3Z</t>
+  </si>
+  <si>
+    <t>218 02 002 Hot Dogs</t>
+  </si>
+  <si>
+    <t>1125602-1</t>
+  </si>
+  <si>
+    <t>_642984065783</t>
+  </si>
+  <si>
+    <t>ROLLERBITE CHICKEN NASHVL HOT 2.9Z LTO</t>
   </si>
   <si>
     <t>218 02 001 Supply Perishable</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Use Category Setting</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Each</t>
+    <t>1125702-1</t>
+  </si>
+  <si>
+    <t>_642984029488</t>
+  </si>
+  <si>
+    <t>ROLLERBITE CHEESEBURGER 2.5Z</t>
+  </si>
+  <si>
+    <t>1125703-1</t>
+  </si>
+  <si>
+    <t>_000120024115</t>
+  </si>
+  <si>
+    <t>ROLLERBITE CHICKEN MONTERY JACK 2.9Z</t>
+  </si>
+  <si>
+    <t>1125706-1</t>
+  </si>
+  <si>
+    <t>_036669064404</t>
+  </si>
+  <si>
+    <t>ROLLERBITE BREAKFAST SCRAMBLER 2.9Z</t>
+  </si>
+  <si>
+    <t>1125707-1</t>
+  </si>
+  <si>
+    <t>_036669064053</t>
+  </si>
+  <si>
+    <t>ROLLERBITE SAUSAG CHEESE HASHBROWN 2.9Z</t>
+  </si>
+  <si>
+    <t>1125710-1</t>
+  </si>
+  <si>
+    <t>_642984979356</t>
+  </si>
+  <si>
+    <t>BOURBON CHKN</t>
   </si>
   <si>
     <t>Default Strategy</t>
@@ -322,7 +427,109 @@
     <t>_</t>
   </si>
   <si>
-    <t>Transfer Group</t>
+    <t>CHEESE CHUNKS</t>
+  </si>
+  <si>
+    <t>CHICKEN STRIPS</t>
+  </si>
+  <si>
+    <t>HOT POPCORN CHKN</t>
+  </si>
+  <si>
+    <t>JALAPENO POPPER</t>
+  </si>
+  <si>
+    <t>MINI CORNDOGS 8CT</t>
+  </si>
+  <si>
+    <t>MINI TACOS 10CT</t>
+  </si>
+  <si>
+    <t>MOZZARELLA STICKS 4CT</t>
+  </si>
+  <si>
+    <t>NATURAL CHIPS</t>
+  </si>
+  <si>
+    <t>ONION RING</t>
+  </si>
+  <si>
+    <t>POPCORN CHKN</t>
+  </si>
+  <si>
+    <t>APPLE TURNOVER</t>
+  </si>
+  <si>
+    <t>BLACK FOREST</t>
+  </si>
+  <si>
+    <t>ECLAIR</t>
+  </si>
+  <si>
+    <t>CHEDDAR SPUDZ</t>
+  </si>
+  <si>
+    <t>EARLY RISER</t>
+  </si>
+  <si>
+    <t>EGGROLL 2CT</t>
+  </si>
+  <si>
+    <t>FRENCH TOAST STICKS</t>
+  </si>
+  <si>
+    <t>JD PANCAKE SAUSAGE</t>
+  </si>
+  <si>
+    <t>SAUSAGE EGG BURRITO 2CT</t>
+  </si>
+  <si>
+    <t>BACON CHSBRGR</t>
+  </si>
+  <si>
+    <t>CHEESEBURGER</t>
+  </si>
+  <si>
+    <t>CHICKEN SANDWICH</t>
+  </si>
+  <si>
+    <t>HAMBURGER</t>
+  </si>
+  <si>
+    <t>MEATLOAF SANDWICH</t>
+  </si>
+  <si>
+    <t>MUSHROOM SWISS BURGER</t>
+  </si>
+  <si>
+    <t>RIB SANDWICH</t>
+  </si>
+  <si>
+    <t>BBQ PORK SANDWICH</t>
+  </si>
+  <si>
+    <t>7" BACON CHSBRGR PIZZA</t>
+  </si>
+  <si>
+    <t>7" HAWAIIAN PIZZA</t>
+  </si>
+  <si>
+    <t>7" MEAT PIZZA</t>
+  </si>
+  <si>
+    <t>7" PEPPERONI SAUSAGE PIZZA</t>
+  </si>
+  <si>
+    <t>7" PEPPERONI PIZZA</t>
+  </si>
+  <si>
+    <t>7" SAUSAGE PIZZS</t>
+  </si>
+  <si>
+    <t>7" SUPREME PIZZA</t>
+  </si>
+  <si>
+    <t>GEHLS SAUCE JALAPENO CHEESE 60Z</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI4"/>
+  <dimension ref="A1:DI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1539,36 +1746,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -1695,7 +1902,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +2107,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2219,9 +2426,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>36019244</v>
+        <v>1125309</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2230,70 +2437,3485 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4">
+        <v>2.99</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1125338</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
         <v>92</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>93</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G5" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K5" t="s">
         <v>95</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>2.69</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1125358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
         <v>95</v>
       </c>
-      <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" t="s">
         <v>98</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AF6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>2.79</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1125602</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>1.99</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1125702</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AF8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1125703</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" t="s">
         <v>98</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1125706</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE10" t="s">
         <v>98</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>100</v>
+      <c r="AF10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>1.59</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1125707</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1125710</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1125827</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1125828</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1125830</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1125831</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1125832</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1125833</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1125834</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO19" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1125835</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1125836</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1125837</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ22" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1125838</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO23" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1125839</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ24" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1125848</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1125853</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s">
+        <v>90</v>
+      </c>
+      <c r="S26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1125855</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1125886</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO28" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1125889</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1125890</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="s">
+        <v>90</v>
+      </c>
+      <c r="S30" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO30" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1125891</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ31" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1125892</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1125893</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s">
+        <v>90</v>
+      </c>
+      <c r="S33" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO33" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1125896</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>90</v>
+      </c>
+      <c r="S34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1125897</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO35" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1125899</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s">
+        <v>90</v>
+      </c>
+      <c r="S36" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1125900</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="S37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO37" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1125903</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s">
+        <v>90</v>
+      </c>
+      <c r="S38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO38" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1125904</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s">
+        <v>90</v>
+      </c>
+      <c r="S39" t="s">
+        <v>97</v>
+      </c>
+      <c r="T39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO39" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1125905</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1125907</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1125909</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" t="s">
+        <v>90</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
+        <v>90</v>
+      </c>
+      <c r="S42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO42" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1125910</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="s">
+        <v>90</v>
+      </c>
+      <c r="S43" t="s">
+        <v>97</v>
+      </c>
+      <c r="T43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO43" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1125912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" t="s">
+        <v>96</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" t="s">
+        <v>90</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s">
+        <v>90</v>
+      </c>
+      <c r="S44" t="s">
+        <v>97</v>
+      </c>
+      <c r="T44" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO44" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1125913</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>97</v>
+      </c>
+      <c r="T45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO45" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ45" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1125915</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" t="s">
+        <v>90</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="s">
+        <v>90</v>
+      </c>
+      <c r="S46" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO46" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ46" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1125916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" t="s">
+        <v>96</v>
+      </c>
+      <c r="N47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s">
+        <v>90</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO47" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1125926</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" t="s">
+        <v>96</v>
+      </c>
+      <c r="N48" t="s">
+        <v>90</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s">
+        <v>90</v>
+      </c>
+      <c r="S48" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO48" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ48" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ48" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
